--- a/Manuscript_tables/Table_S6.xlsx
+++ b/Manuscript_tables/Table_S6.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiefisher/SurveyPaper/Manuscript_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568524B8-497F-B74B-8870-D5D8889934D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB3B9B-0B02-ED49-B9A8-39E318822F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27420" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="27420" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_S2" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_S6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
-    <t>Specific</t>
-  </si>
-  <si>
     <t>NonBasidioObs</t>
   </si>
   <si>
@@ -179,12 +176,15 @@
   </si>
   <si>
     <t>TaphrinoEnrichment_pAdj</t>
+  </si>
+  <si>
+    <t>Specific Substrate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1019,15 +1019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -1043,48 +1044,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -1125,7 +1126,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -1166,7 +1167,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1207,7 +1208,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1248,7 +1249,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1289,7 +1290,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1330,7 +1331,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -1371,7 +1372,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1412,7 +1413,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>222</v>
@@ -1453,7 +1454,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1494,7 +1495,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1535,7 +1536,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>43</v>
@@ -1576,7 +1577,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1617,7 +1618,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1658,7 +1659,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1699,7 +1700,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1740,7 +1741,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>75</v>
@@ -1781,7 +1782,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1822,7 +1823,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1863,7 +1864,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1904,7 +1905,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>13</v>
@@ -1945,7 +1946,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -1986,7 +1987,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -2027,7 +2028,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -2068,7 +2069,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2109,7 +2110,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2191,7 +2192,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2232,7 +2233,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -2273,7 +2274,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>343</v>
@@ -2314,7 +2315,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2355,7 +2356,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -2396,7 +2397,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2437,7 +2438,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2519,7 +2520,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2560,7 +2561,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -2601,7 +2602,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2642,7 +2643,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>15</v>
@@ -2683,7 +2684,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>0</v>
